--- a/data/TEST.xlsx
+++ b/data/TEST.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,1047 +458,1058 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>42830.33680555555</v>
+        <v>42964.33333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>12964.3085106383</v>
+        <v>15835.38573728777</v>
       </c>
       <c r="C2" t="n">
-        <v>3.043393433541861e-05</v>
+        <v>-1.787994052720056e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>42830.34027777778</v>
+        <v>42964.33680555555</v>
       </c>
       <c r="B3" t="n">
-        <v>12932</v>
+        <v>15916.87639989074</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001315433315382928</v>
+        <v>-0.001006226108419926</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>42830.34375</v>
+        <v>42964.34027777778</v>
       </c>
       <c r="B4" t="n">
-        <v>12915</v>
+        <v>15932.90043703906</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.001315433315382865</v>
+        <v>0.001006226108419886</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>42830.34722222222</v>
+        <v>42964.34375</v>
       </c>
       <c r="B5" t="n">
-        <v>12929</v>
+        <v>15925.88992078667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00108342372461245</v>
+        <v>-0.0004400993438109198</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>42830.35069444445</v>
+        <v>42964.34722222222</v>
       </c>
       <c r="B6" t="n">
-        <v>12930</v>
+        <v>15910.86738596012</v>
       </c>
       <c r="C6" t="n">
-        <v>7.734251134990851e-05</v>
+        <v>-0.0009437227414051418</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>42830.35416666666</v>
+        <v>42964.35069444445</v>
       </c>
       <c r="B7" t="n">
-        <v>12941</v>
+        <v>15900.85236274242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008503730557669523</v>
+        <v>-0.0006296436425120419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>42830.35763888889</v>
+        <v>42964.35416666666</v>
       </c>
       <c r="B8" t="n">
-        <v>12955</v>
+        <v>15920.88240917782</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001081248174540157</v>
+        <v>0.001258891083360182</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>42830.36111111111</v>
+        <v>42964.35763888889</v>
       </c>
       <c r="B9" t="n">
-        <v>12975</v>
+        <v>15914.8733952472</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00154261503787906</v>
+        <v>-0.0003775009482356217</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>42830.36458333334</v>
+        <v>42964.36111111111</v>
       </c>
       <c r="B10" t="n">
-        <v>12972</v>
+        <v>15895.84485113357</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0002312406068808551</v>
+        <v>-0.001196360687982225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>42830.36805555555</v>
+        <v>42964.36458333334</v>
       </c>
       <c r="B11" t="n">
-        <v>12981</v>
+        <v>15849.77574433215</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0006935614657858243</v>
+        <v>-0.002902393355515506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>42830.37152777778</v>
+        <v>42964.36805555555</v>
       </c>
       <c r="B12" t="n">
-        <v>12998</v>
+        <v>15819.73067467905</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00130874956129962</v>
+        <v>-0.001897413762598606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>42830.375</v>
+        <v>42964.37152777778</v>
       </c>
       <c r="B13" t="n">
-        <v>12991</v>
+        <v>15782.67508877356</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0005386894585613551</v>
+        <v>-0.002345112784468666</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>42830.37847222222</v>
+        <v>42964.375</v>
       </c>
       <c r="B14" t="n">
-        <v>13013</v>
+        <v>15832.75020486206</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001692047781024523</v>
+        <v>0.003167767474116501</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>42830.38194444445</v>
+        <v>42964.37847222222</v>
       </c>
       <c r="B15" t="n">
-        <v>13002</v>
+        <v>15816.72616771374</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0008456660123432581</v>
+        <v>-0.001012594226133077</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>42830.38541666666</v>
+        <v>42964.38194444445</v>
       </c>
       <c r="B16" t="n">
-        <v>13025</v>
+        <v>15772.66006555586</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001767395857153532</v>
+        <v>-0.002789932695473907</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>42830.38888888889</v>
+        <v>42964.38541666666</v>
       </c>
       <c r="B17" t="n">
-        <v>13024</v>
+        <v>15764.6480469817</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.677837924612503e-05</v>
+        <v>-0.0005080978197592737</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>42830.39236111111</v>
+        <v>42964.38888888889</v>
       </c>
       <c r="B18" t="n">
-        <v>13038</v>
+        <v>15790.68710734772</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001074361242163206</v>
+        <v>0.00165037488266026</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>42830.39583333334</v>
+        <v>42964.39236111111</v>
       </c>
       <c r="B19" t="n">
-        <v>13055</v>
+        <v>15771.65856323409</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001303031648744536</v>
+        <v>-0.001205775173853497</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>42830.39930555555</v>
+        <v>42964.39583333334</v>
       </c>
       <c r="B20" t="n">
-        <v>13044</v>
+        <v>15764.6480469817</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0008429442240194491</v>
+        <v>-0.0004445997088068494</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>42830.40277777778</v>
+        <v>42964.39930555555</v>
       </c>
       <c r="B21" t="n">
-        <v>13028</v>
+        <v>15769.65555859055</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.001227370513085687</v>
+        <v>0.0003175913895908764</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>42830.40625</v>
+        <v>42964.40277777778</v>
       </c>
       <c r="B22" t="n">
-        <v>13064</v>
+        <v>15764.6480469817</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002759468254176952</v>
+        <v>-0.0003175913895909919</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>42830.40972222222</v>
+        <v>42964.40625</v>
       </c>
       <c r="B23" t="n">
-        <v>13050</v>
+        <v>15754.633023764</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.001072221899461624</v>
+        <v>-0.000635485532316629</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>42830.41319444445</v>
+        <v>42964.40972222222</v>
       </c>
       <c r="B24" t="n">
-        <v>13022</v>
+        <v>15737.60748429391</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.002147898954032076</v>
+        <v>-0.001081253086737829</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>42830.41666666666</v>
+        <v>42964.41319444445</v>
       </c>
       <c r="B25" t="n">
-        <v>13009</v>
+        <v>15718.57894018028</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.000998809195248303</v>
+        <v>-0.001209844459713052</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>42830.42013888889</v>
+        <v>42964.41666666666</v>
       </c>
       <c r="B26" t="n">
-        <v>12975</v>
+        <v>15683.52635891833</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.002616996567469626</v>
+        <v>-0.002232499731259904</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>42830.42361111111</v>
+        <v>42964.42013888889</v>
       </c>
       <c r="B27" t="n">
-        <v>12982</v>
+        <v>15668.50382409178</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0005393535593244043</v>
+        <v>-0.0009583134418115908</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>42830.42708333334</v>
+        <v>42964.42361111111</v>
       </c>
       <c r="B28" t="n">
-        <v>12952</v>
+        <v>15663.49631248293</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.00231356623594283</v>
+        <v>-0.000319642003680443</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>42830.43055555555</v>
+        <v>42964.42708333334</v>
       </c>
       <c r="B29" t="n">
-        <v>12958</v>
+        <v>15706.56091231904</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0004631416524315356</v>
+        <v>0.002745588035122758</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>42830.43402777778</v>
+        <v>42964.43055555555</v>
       </c>
       <c r="B30" t="n">
-        <v>12966</v>
+        <v>15705.55940999727</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0006171887250384621</v>
+        <v>-6.376534355741118e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>42830.4375</v>
+        <v>42964.43402777778</v>
       </c>
       <c r="B31" t="n">
-        <v>12956</v>
+        <v>15702.55490303196</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.0007715454437210744</v>
+        <v>-0.0001913204304167543</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>42830.44097222222</v>
+        <v>42964.4375</v>
       </c>
       <c r="B32" t="n">
-        <v>12942</v>
+        <v>15737.60748429391</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.00108116467400852</v>
+        <v>0.002229797375316441</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>42830.44444444445</v>
+        <v>42964.44097222222</v>
       </c>
       <c r="B33" t="n">
-        <v>12955</v>
+        <v>15690.53687517072</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001003977378998873</v>
+        <v>-0.002995445342279873</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>42830.44791666666</v>
+        <v>42964.44444444445</v>
       </c>
       <c r="B34" t="n">
-        <v>12926</v>
+        <v>15705.55940999727</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.002241027173369553</v>
+        <v>0.0009569683973802546</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>42830.45138888889</v>
+        <v>42964.44791666666</v>
       </c>
       <c r="B35" t="n">
-        <v>12958</v>
+        <v>15726.59095875444</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002472571187061786</v>
+        <v>0.001338219094086554</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>42830.45486111111</v>
+        <v>42964.45138888889</v>
       </c>
       <c r="B36" t="n">
-        <v>12960</v>
+        <v>15704.5579076755</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0001543328963631394</v>
+        <v>-0.001401988503922428</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>42830.45833333334</v>
+        <v>42964.45486111111</v>
       </c>
       <c r="B37" t="n">
-        <v>12975</v>
+        <v>15688.53387052718</v>
       </c>
       <c r="C37" t="n">
-        <v>0.001156738127823733</v>
+        <v>-0.001020863994739432</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>42830.46180555555</v>
+        <v>42964.45833333334</v>
       </c>
       <c r="B38" t="n">
-        <v>12978</v>
+        <v>15692.53987981426</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0002311871470244359</v>
+        <v>0.0002553137181163178</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>42830.46527777778</v>
+        <v>42964.46180555555</v>
       </c>
       <c r="B39" t="n">
-        <v>12977</v>
+        <v>15704.5579076755</v>
       </c>
       <c r="C39" t="n">
-        <v>-7.7056443883294e-05</v>
+        <v>0.0007655502766230666</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>42830.46875</v>
+        <v>42964.46527777778</v>
       </c>
       <c r="B40" t="n">
-        <v>12979</v>
+        <v>15716.57593553674</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0001541069505283427</v>
+        <v>0.0007649646576893427</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42830.47222222222</v>
+        <v>42964.46875</v>
       </c>
       <c r="B41" t="n">
-        <v>12946</v>
+        <v>15744.6180005463</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.002545806582303488</v>
+        <v>0.001782645152792972</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>42830.47569444445</v>
+        <v>42964.47222222222</v>
       </c>
       <c r="B42" t="n">
-        <v>12932</v>
+        <v>15745.61950286807</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.001082000260131753</v>
+        <v>6.360716218802519e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>42830.47916666666</v>
+        <v>42964.47569444445</v>
       </c>
       <c r="B43" t="n">
-        <v>12947</v>
+        <v>15751.62851679869</v>
       </c>
       <c r="C43" t="n">
-        <v>0.001159241213323508</v>
+        <v>0.000381558033246049</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42830.48263888889</v>
+        <v>42964.47916666666</v>
       </c>
       <c r="B44" t="n">
-        <v>12947</v>
+        <v>15767.65255394701</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.001016776905086811</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>42830.48611111111</v>
+        <v>42964.48263888889</v>
       </c>
       <c r="B45" t="n">
-        <v>12913</v>
+        <v>15814.7231630702</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.002629545211995708</v>
+        <v>0.00298081717460824</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>42830.48958333334</v>
+        <v>42964.48611111111</v>
       </c>
       <c r="B46" t="n">
-        <v>12898</v>
+        <v>15816.72616771374</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.001162295276328916</v>
+        <v>0.000126646403411668</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>42830.49305555555</v>
+        <v>42964.48958333334</v>
       </c>
       <c r="B47" t="n">
-        <v>12908</v>
+        <v>15838.75921879268</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0007750136015297748</v>
+        <v>0.001392052869694443</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>42830.49652777778</v>
+        <v>42964.49305555555</v>
       </c>
       <c r="B48" t="n">
-        <v>12918</v>
+        <v>15847.77273968861</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0007744134205656069</v>
+        <v>0.0005689181227442518</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42830.5</v>
+        <v>42964.49652777778</v>
       </c>
       <c r="B49" t="n">
-        <v>12895</v>
+        <v>15891.83884184649</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.00178204827697289</v>
+        <v>0.002776727771727526</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>42830.50347222222</v>
+        <v>42964.5</v>
       </c>
       <c r="B50" t="n">
-        <v>12938</v>
+        <v>15920.88240917782</v>
       </c>
       <c r="C50" t="n">
-        <v>0.003329078288485631</v>
+        <v>0.001825909526650907</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>42830.50694444445</v>
+        <v>42964.50347222222</v>
       </c>
       <c r="B51" t="n">
-        <v>12941</v>
+        <v>15937.90794864791</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0002318482177393303</v>
+        <v>0.001068812776608303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>42830.51041666666</v>
+        <v>42964.50694444445</v>
       </c>
       <c r="B52" t="n">
-        <v>12939</v>
+        <v>15924.8884184649</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0001545595057172221</v>
+        <v>-0.0008172246250832874</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42830.51388888889</v>
+        <v>42964.51041666666</v>
       </c>
       <c r="B53" t="n">
-        <v>12959</v>
+        <v>15969.95602294455</v>
       </c>
       <c r="C53" t="n">
-        <v>0.00154452111946175</v>
+        <v>0.002826013750043929</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42830.51736111111</v>
+        <v>42964.51388888889</v>
       </c>
       <c r="B54" t="n">
-        <v>12958</v>
+        <v>15952.93048347446</v>
       </c>
       <c r="C54" t="n">
-        <v>-7.716942551188023e-05</v>
+        <v>-0.001066666767802458</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>42830.52083333334</v>
+        <v>42964.51736111111</v>
       </c>
       <c r="B55" t="n">
-        <v>12995</v>
+        <v>15975.96503687517</v>
       </c>
       <c r="C55" t="n">
-        <v>0.002851310065688177</v>
+        <v>0.001442865906981246</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>42830.52430555555</v>
+        <v>42964.52083333334</v>
       </c>
       <c r="B56" t="n">
-        <v>13004</v>
+        <v>15980.97254848402</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0006923343482052807</v>
+        <v>0.0003133912088076259</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>42830.52777777778</v>
+        <v>42964.52430555555</v>
       </c>
       <c r="B57" t="n">
-        <v>13005</v>
+        <v>15929.89593007375</v>
       </c>
       <c r="C57" t="n">
-        <v>7.689645895595162e-05</v>
+        <v>-0.003201207893346869</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>42830.53125</v>
+        <v>42964.52777777778</v>
       </c>
       <c r="B58" t="n">
-        <v>13000</v>
+        <v>15949.92597650915</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.000384541439078148</v>
+        <v>0.001256597300309695</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>42830.53472222222</v>
+        <v>42964.53125</v>
       </c>
       <c r="B59" t="n">
-        <v>12995</v>
+        <v>15915.87489756897</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.0003846893680831972</v>
+        <v>-0.002137155882900425</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>42830.53819444445</v>
+        <v>42964.53472222222</v>
       </c>
       <c r="B60" t="n">
-        <v>12980</v>
+        <v>15878.81931166348</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.001154956817509681</v>
+        <v>-0.002330929962041942</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>42830.54166666666</v>
+        <v>42964.53819444445</v>
       </c>
       <c r="B61" t="n">
-        <v>12983</v>
+        <v>15854.783255941</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0002310981021725161</v>
+        <v>-0.001514864898670238</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42830.54513888889</v>
+        <v>42964.54166666666</v>
       </c>
       <c r="B62" t="n">
-        <v>12957</v>
+        <v>15890.83733952472</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.002004626731442618</v>
+        <v>0.002271437660312138</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42830.54861111111</v>
+        <v>42964.54513888889</v>
       </c>
       <c r="B63" t="n">
-        <v>12941</v>
+        <v>15888.83433488118</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.001235616807140757</v>
+        <v>-0.0001260557167937154</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42830.55208333334</v>
+        <v>42964.54861111111</v>
       </c>
       <c r="B64" t="n">
-        <v>12958</v>
+        <v>15914.8733952472</v>
       </c>
       <c r="C64" t="n">
-        <v>0.001312792188232413</v>
+        <v>0.00163748619534018</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42830.55555555555</v>
+        <v>42964.55208333334</v>
       </c>
       <c r="B65" t="n">
-        <v>12934</v>
+        <v>15956.93649276154</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.001853855003364492</v>
+        <v>0.002639518877872654</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42830.55902777778</v>
+        <v>42964.55555555555</v>
       </c>
       <c r="B66" t="n">
-        <v>12915</v>
+        <v>15959.94099972685</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.001470076476597241</v>
+        <v>0.0001882707338705021</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42830.5625</v>
+        <v>42964.55902777778</v>
       </c>
       <c r="B67" t="n">
-        <v>12899</v>
+        <v>15922.88541382136</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.001239637564804799</v>
+        <v>-0.002324486675670214</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42830.56597222222</v>
+        <v>42964.5625</v>
       </c>
       <c r="B68" t="n">
-        <v>12899</v>
+        <v>15917.87790221251</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>-0.0003145346485844102</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42830.56944444445</v>
+        <v>42964.56597222222</v>
       </c>
       <c r="B69" t="n">
-        <v>12896</v>
+        <v>15855.78475826277</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.000232603218726541</v>
+        <v>-0.003908471217723145</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42830.57291666666</v>
+        <v>42964.56944444445</v>
       </c>
       <c r="B70" t="n">
-        <v>12895</v>
+        <v>15889.83583720295</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.754643096440874e-05</v>
+        <v>0.002145246579546514</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42830.57638888889</v>
+        <v>42964.57291666666</v>
       </c>
       <c r="B71" t="n">
-        <v>12908</v>
+        <v>15879.82081398525</v>
       </c>
       <c r="C71" t="n">
-        <v>0.001007634856407185</v>
+        <v>-0.0006304772921790722</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42830.57986111111</v>
+        <v>42964.57638888889</v>
       </c>
       <c r="B72" t="n">
-        <v>12896</v>
+        <v>15908.86438131658</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.0009300884254429126</v>
+        <v>0.001827290133847381</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42830.58333333334</v>
+        <v>42964.57986111111</v>
       </c>
       <c r="B73" t="n">
-        <v>12891</v>
+        <v>15886.83133023764</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.0003877923033047782</v>
+        <v>-0.001385914295161195</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42830.58680555555</v>
+        <v>42964.58333333334</v>
       </c>
       <c r="B74" t="n">
-        <v>12908</v>
+        <v>15860.79226987162</v>
       </c>
       <c r="C74" t="n">
-        <v>0.001317880728747664</v>
+        <v>-0.001640378916729435</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42830.59027777778</v>
+        <v>42964.58680555555</v>
       </c>
       <c r="B75" t="n">
-        <v>12926</v>
+        <v>15869.80579076755</v>
       </c>
       <c r="C75" t="n">
-        <v>0.001393512650988267</v>
+        <v>0.0005681280334611449</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42830.59375</v>
+        <v>42964.59027777778</v>
       </c>
       <c r="B76" t="n">
-        <v>12959</v>
+        <v>15874.8133023764</v>
       </c>
       <c r="C76" t="n">
-        <v>0.002549740612573654</v>
+        <v>0.0003154872727055174</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42830.59722222222</v>
+        <v>42964.59375</v>
       </c>
       <c r="B77" t="n">
-        <v>12971</v>
+        <v>15890.83733952472</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0009255689052585285</v>
+        <v>0.001008890936197135</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42830.60069444445</v>
+        <v>42964.59722222222</v>
       </c>
       <c r="B78" t="n">
-        <v>12989</v>
+        <v>15882.82532095056</v>
       </c>
       <c r="C78" t="n">
-        <v>0.00138674906661089</v>
+        <v>-0.000504318235488709</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42830.60416666666</v>
+        <v>42964.60069444445</v>
       </c>
       <c r="B79" t="n">
-        <v>12976</v>
+        <v>15868.80428844578</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.001001348052089778</v>
+        <v>-0.0008831693735797814</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42830.60763888889</v>
+        <v>42964.60416666666</v>
       </c>
       <c r="B80" t="n">
-        <v>13011</v>
+        <v>15852.78025129746</v>
       </c>
       <c r="C80" t="n">
-        <v>0.002693656148281718</v>
+        <v>-0.001010292439282723</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42830.61111111111</v>
+        <v>42964.60763888889</v>
       </c>
       <c r="B81" t="n">
-        <v>13005</v>
+        <v>15803.70663753073</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.0004612546207240102</v>
+        <v>-0.003100385285873199</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42830.61458333334</v>
+        <v>42964.61111111111</v>
       </c>
       <c r="B82" t="n">
-        <v>13003</v>
+        <v>15760.64203769462</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.0001537988314320993</v>
+        <v>-0.002728687799000692</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42830.61805555555</v>
+        <v>42964.61458333334</v>
       </c>
       <c r="B83" t="n">
-        <v>13018</v>
+        <v>15790.68710734772</v>
       </c>
       <c r="C83" t="n">
-        <v>0.001152915081012654</v>
+        <v>0.001904520636617267</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42830.62152777778</v>
+        <v>42964.61805555555</v>
       </c>
       <c r="B84" t="n">
-        <v>12995</v>
+        <v>15784.6780934171</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.001768347056742003</v>
+        <v>-0.0003806140619408054</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42830.625</v>
+        <v>42964.62152777778</v>
       </c>
       <c r="B85" t="n">
-        <v>12989</v>
+        <v>15825.73968860967</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.0004618226683066269</v>
+        <v>0.002597980107137571</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42830.62847222222</v>
+        <v>42964.625</v>
       </c>
       <c r="B86" t="n">
-        <v>12992</v>
+        <v>15837.75771647091</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0002309379941751343</v>
+        <v>0.0007591093481938937</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42830.63194444445</v>
+        <v>42964.62847222222</v>
       </c>
       <c r="B87" t="n">
-        <v>12953</v>
+        <v>15825.73968860967</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.00300636187120316</v>
+        <v>-0.0007591093481937658</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42830.63541666666</v>
+        <v>42964.63194444445</v>
       </c>
       <c r="B88" t="n">
-        <v>12918</v>
+        <v>15814.7231630702</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.002705733937837939</v>
+        <v>-0.0006963568160354786</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42830.63888888889</v>
+        <v>42964.63541666666</v>
       </c>
       <c r="B89" t="n">
-        <v>12926</v>
+        <v>15845.76973504507</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0006190992304226895</v>
+        <v>0.001961219114698513</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42830.64236111111</v>
+        <v>42964.63888888889</v>
       </c>
       <c r="B90" t="n">
-        <v>12950</v>
+        <v>15837.75771647091</v>
       </c>
       <c r="C90" t="n">
-        <v>0.001855001304843037</v>
+        <v>-0.0005057529504692906</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42830.64583333334</v>
+        <v>42964.64236111111</v>
       </c>
       <c r="B91" t="n">
-        <v>12955</v>
+        <v>15859.79076754985</v>
       </c>
       <c r="C91" t="n">
-        <v>0.000386025868526471</v>
+        <v>0.001390205595148746</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42830.64930555555</v>
+        <v>42964.64583333334</v>
       </c>
       <c r="B92" t="n">
-        <v>12963</v>
+        <v>15871.80879541109</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0006173316038325207</v>
+        <v>0.0007574801523658585</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42830.65277777778</v>
+        <v>42964.64930555555</v>
       </c>
       <c r="B93" t="n">
-        <v>12984</v>
+        <v>15919.88090685605</v>
       </c>
       <c r="C93" t="n">
-        <v>0.001618684594384237</v>
+        <v>0.003024195853265782</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42830.65625</v>
+        <v>42964.65277777778</v>
       </c>
       <c r="B94" t="n">
-        <v>12997</v>
+        <v>15925.88992078667</v>
       </c>
       <c r="C94" t="n">
-        <v>0.00100073138716128</v>
+        <v>0.0003773822297759883</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>42830.65972222222</v>
+        <v>42964.65625</v>
       </c>
       <c r="B95" t="n">
-        <v>12983</v>
+        <v>15919.88090685605</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.001077752221335001</v>
+        <v>-0.0003773822297761153</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>42830.66319444445</v>
+        <v>42964.65972222222</v>
       </c>
       <c r="B96" t="n">
-        <v>12952</v>
+        <v>15917.87790221251</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.002390593002782339</v>
+        <v>-0.0001258257315279178</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>42964.66319444445</v>
+      </c>
+      <c r="B97" t="n">
+        <v>15905.85987435127</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.0007552870449684868</v>
       </c>
     </row>
   </sheetData>

--- a/data/TEST.xlsx
+++ b/data/TEST.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,1058 +458,1047 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>42964.33333333334</v>
+        <v>42830.33680555555</v>
       </c>
       <c r="B2" t="n">
-        <v>15835.38573728777</v>
+        <v>12964.3085106383</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.787994052720056e-05</v>
+        <v>3.043393433541861e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>42964.33680555555</v>
+        <v>42830.34027777778</v>
       </c>
       <c r="B3" t="n">
-        <v>15916.87639989074</v>
+        <v>12932</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.001006226108419926</v>
+        <v>0.001315433315382928</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>42964.34027777778</v>
+        <v>42830.34375</v>
       </c>
       <c r="B4" t="n">
-        <v>15932.90043703906</v>
+        <v>12915</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001006226108419886</v>
+        <v>-0.001315433315382865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>42964.34375</v>
+        <v>42830.34722222222</v>
       </c>
       <c r="B5" t="n">
-        <v>15925.88992078667</v>
+        <v>12929</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0004400993438109198</v>
+        <v>0.00108342372461245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>42964.34722222222</v>
+        <v>42830.35069444445</v>
       </c>
       <c r="B6" t="n">
-        <v>15910.86738596012</v>
+        <v>12930</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0009437227414051418</v>
+        <v>7.734251134990851e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>42964.35069444445</v>
+        <v>42830.35416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>15900.85236274242</v>
+        <v>12941</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0006296436425120419</v>
+        <v>0.0008503730557669523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>42964.35416666666</v>
+        <v>42830.35763888889</v>
       </c>
       <c r="B8" t="n">
-        <v>15920.88240917782</v>
+        <v>12955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001258891083360182</v>
+        <v>0.001081248174540157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>42964.35763888889</v>
+        <v>42830.36111111111</v>
       </c>
       <c r="B9" t="n">
-        <v>15914.8733952472</v>
+        <v>12975</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0003775009482356217</v>
+        <v>0.00154261503787906</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>42964.36111111111</v>
+        <v>42830.36458333334</v>
       </c>
       <c r="B10" t="n">
-        <v>15895.84485113357</v>
+        <v>12972</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.001196360687982225</v>
+        <v>-0.0002312406068808551</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>42964.36458333334</v>
+        <v>42830.36805555555</v>
       </c>
       <c r="B11" t="n">
-        <v>15849.77574433215</v>
+        <v>12981</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.002902393355515506</v>
+        <v>0.0006935614657858243</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>42964.36805555555</v>
+        <v>42830.37152777778</v>
       </c>
       <c r="B12" t="n">
-        <v>15819.73067467905</v>
+        <v>12998</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.001897413762598606</v>
+        <v>0.00130874956129962</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>42964.37152777778</v>
+        <v>42830.375</v>
       </c>
       <c r="B13" t="n">
-        <v>15782.67508877356</v>
+        <v>12991</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.002345112784468666</v>
+        <v>-0.0005386894585613551</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>42964.375</v>
+        <v>42830.37847222222</v>
       </c>
       <c r="B14" t="n">
-        <v>15832.75020486206</v>
+        <v>13013</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003167767474116501</v>
+        <v>0.001692047781024523</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>42964.37847222222</v>
+        <v>42830.38194444445</v>
       </c>
       <c r="B15" t="n">
-        <v>15816.72616771374</v>
+        <v>13002</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.001012594226133077</v>
+        <v>-0.0008456660123432581</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>42964.38194444445</v>
+        <v>42830.38541666666</v>
       </c>
       <c r="B16" t="n">
-        <v>15772.66006555586</v>
+        <v>13025</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002789932695473907</v>
+        <v>0.001767395857153532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>42964.38541666666</v>
+        <v>42830.38888888889</v>
       </c>
       <c r="B17" t="n">
-        <v>15764.6480469817</v>
+        <v>13024</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0005080978197592737</v>
+        <v>-7.677837924612503e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>42964.38888888889</v>
+        <v>42830.39236111111</v>
       </c>
       <c r="B18" t="n">
-        <v>15790.68710734772</v>
+        <v>13038</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00165037488266026</v>
+        <v>0.001074361242163206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>42964.39236111111</v>
+        <v>42830.39583333334</v>
       </c>
       <c r="B19" t="n">
-        <v>15771.65856323409</v>
+        <v>13055</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.001205775173853497</v>
+        <v>0.001303031648744536</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>42964.39583333334</v>
+        <v>42830.39930555555</v>
       </c>
       <c r="B20" t="n">
-        <v>15764.6480469817</v>
+        <v>13044</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0004445997088068494</v>
+        <v>-0.0008429442240194491</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>42964.39930555555</v>
+        <v>42830.40277777778</v>
       </c>
       <c r="B21" t="n">
-        <v>15769.65555859055</v>
+        <v>13028</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0003175913895908764</v>
+        <v>-0.001227370513085687</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>42964.40277777778</v>
+        <v>42830.40625</v>
       </c>
       <c r="B22" t="n">
-        <v>15764.6480469817</v>
+        <v>13064</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0003175913895909919</v>
+        <v>0.002759468254176952</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>42964.40625</v>
+        <v>42830.40972222222</v>
       </c>
       <c r="B23" t="n">
-        <v>15754.633023764</v>
+        <v>13050</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.000635485532316629</v>
+        <v>-0.001072221899461624</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>42964.40972222222</v>
+        <v>42830.41319444445</v>
       </c>
       <c r="B24" t="n">
-        <v>15737.60748429391</v>
+        <v>13022</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.001081253086737829</v>
+        <v>-0.002147898954032076</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>42964.41319444445</v>
+        <v>42830.41666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>15718.57894018028</v>
+        <v>13009</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.001209844459713052</v>
+        <v>-0.000998809195248303</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>42964.41666666666</v>
+        <v>42830.42013888889</v>
       </c>
       <c r="B26" t="n">
-        <v>15683.52635891833</v>
+        <v>12975</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.002232499731259904</v>
+        <v>-0.002616996567469626</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>42964.42013888889</v>
+        <v>42830.42361111111</v>
       </c>
       <c r="B27" t="n">
-        <v>15668.50382409178</v>
+        <v>12982</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0009583134418115908</v>
+        <v>0.0005393535593244043</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>42964.42361111111</v>
+        <v>42830.42708333334</v>
       </c>
       <c r="B28" t="n">
-        <v>15663.49631248293</v>
+        <v>12952</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.000319642003680443</v>
+        <v>-0.00231356623594283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>42964.42708333334</v>
+        <v>42830.43055555555</v>
       </c>
       <c r="B29" t="n">
-        <v>15706.56091231904</v>
+        <v>12958</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002745588035122758</v>
+        <v>0.0004631416524315356</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>42964.43055555555</v>
+        <v>42830.43402777778</v>
       </c>
       <c r="B30" t="n">
-        <v>15705.55940999727</v>
+        <v>12966</v>
       </c>
       <c r="C30" t="n">
-        <v>-6.376534355741118e-05</v>
+        <v>0.0006171887250384621</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>42964.43402777778</v>
+        <v>42830.4375</v>
       </c>
       <c r="B31" t="n">
-        <v>15702.55490303196</v>
+        <v>12956</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.0001913204304167543</v>
+        <v>-0.0007715454437210744</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>42964.4375</v>
+        <v>42830.44097222222</v>
       </c>
       <c r="B32" t="n">
-        <v>15737.60748429391</v>
+        <v>12942</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002229797375316441</v>
+        <v>-0.00108116467400852</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>42964.44097222222</v>
+        <v>42830.44444444445</v>
       </c>
       <c r="B33" t="n">
-        <v>15690.53687517072</v>
+        <v>12955</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.002995445342279873</v>
+        <v>0.001003977378998873</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>42964.44444444445</v>
+        <v>42830.44791666666</v>
       </c>
       <c r="B34" t="n">
-        <v>15705.55940999727</v>
+        <v>12926</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0009569683973802546</v>
+        <v>-0.002241027173369553</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>42964.44791666666</v>
+        <v>42830.45138888889</v>
       </c>
       <c r="B35" t="n">
-        <v>15726.59095875444</v>
+        <v>12958</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001338219094086554</v>
+        <v>0.002472571187061786</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>42964.45138888889</v>
+        <v>42830.45486111111</v>
       </c>
       <c r="B36" t="n">
-        <v>15704.5579076755</v>
+        <v>12960</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.001401988503922428</v>
+        <v>0.0001543328963631394</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>42964.45486111111</v>
+        <v>42830.45833333334</v>
       </c>
       <c r="B37" t="n">
-        <v>15688.53387052718</v>
+        <v>12975</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.001020863994739432</v>
+        <v>0.001156738127823733</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>42964.45833333334</v>
+        <v>42830.46180555555</v>
       </c>
       <c r="B38" t="n">
-        <v>15692.53987981426</v>
+        <v>12978</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0002553137181163178</v>
+        <v>0.0002311871470244359</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>42964.46180555555</v>
+        <v>42830.46527777778</v>
       </c>
       <c r="B39" t="n">
-        <v>15704.5579076755</v>
+        <v>12977</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0007655502766230666</v>
+        <v>-7.7056443883294e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>42964.46527777778</v>
+        <v>42830.46875</v>
       </c>
       <c r="B40" t="n">
-        <v>15716.57593553674</v>
+        <v>12979</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0007649646576893427</v>
+        <v>0.0001541069505283427</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42964.46875</v>
+        <v>42830.47222222222</v>
       </c>
       <c r="B41" t="n">
-        <v>15744.6180005463</v>
+        <v>12946</v>
       </c>
       <c r="C41" t="n">
-        <v>0.001782645152792972</v>
+        <v>-0.002545806582303488</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>42964.47222222222</v>
+        <v>42830.47569444445</v>
       </c>
       <c r="B42" t="n">
-        <v>15745.61950286807</v>
+        <v>12932</v>
       </c>
       <c r="C42" t="n">
-        <v>6.360716218802519e-05</v>
+        <v>-0.001082000260131753</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>42964.47569444445</v>
+        <v>42830.47916666666</v>
       </c>
       <c r="B43" t="n">
-        <v>15751.62851679869</v>
+        <v>12947</v>
       </c>
       <c r="C43" t="n">
-        <v>0.000381558033246049</v>
+        <v>0.001159241213323508</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42964.47916666666</v>
+        <v>42830.48263888889</v>
       </c>
       <c r="B44" t="n">
-        <v>15767.65255394701</v>
+        <v>12947</v>
       </c>
       <c r="C44" t="n">
-        <v>0.001016776905086811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>42964.48263888889</v>
+        <v>42830.48611111111</v>
       </c>
       <c r="B45" t="n">
-        <v>15814.7231630702</v>
+        <v>12913</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00298081717460824</v>
+        <v>-0.002629545211995708</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>42964.48611111111</v>
+        <v>42830.48958333334</v>
       </c>
       <c r="B46" t="n">
-        <v>15816.72616771374</v>
+        <v>12898</v>
       </c>
       <c r="C46" t="n">
-        <v>0.000126646403411668</v>
+        <v>-0.001162295276328916</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>42964.48958333334</v>
+        <v>42830.49305555555</v>
       </c>
       <c r="B47" t="n">
-        <v>15838.75921879268</v>
+        <v>12908</v>
       </c>
       <c r="C47" t="n">
-        <v>0.001392052869694443</v>
+        <v>0.0007750136015297748</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>42964.49305555555</v>
+        <v>42830.49652777778</v>
       </c>
       <c r="B48" t="n">
-        <v>15847.77273968861</v>
+        <v>12918</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0005689181227442518</v>
+        <v>0.0007744134205656069</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42964.49652777778</v>
+        <v>42830.5</v>
       </c>
       <c r="B49" t="n">
-        <v>15891.83884184649</v>
+        <v>12895</v>
       </c>
       <c r="C49" t="n">
-        <v>0.002776727771727526</v>
+        <v>-0.00178204827697289</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>42964.5</v>
+        <v>42830.50347222222</v>
       </c>
       <c r="B50" t="n">
-        <v>15920.88240917782</v>
+        <v>12938</v>
       </c>
       <c r="C50" t="n">
-        <v>0.001825909526650907</v>
+        <v>0.003329078288485631</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>42964.50347222222</v>
+        <v>42830.50694444445</v>
       </c>
       <c r="B51" t="n">
-        <v>15937.90794864791</v>
+        <v>12941</v>
       </c>
       <c r="C51" t="n">
-        <v>0.001068812776608303</v>
+        <v>0.0002318482177393303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>42964.50694444445</v>
+        <v>42830.51041666666</v>
       </c>
       <c r="B52" t="n">
-        <v>15924.8884184649</v>
+        <v>12939</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0008172246250832874</v>
+        <v>-0.0001545595057172221</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42964.51041666666</v>
+        <v>42830.51388888889</v>
       </c>
       <c r="B53" t="n">
-        <v>15969.95602294455</v>
+        <v>12959</v>
       </c>
       <c r="C53" t="n">
-        <v>0.002826013750043929</v>
+        <v>0.00154452111946175</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42964.51388888889</v>
+        <v>42830.51736111111</v>
       </c>
       <c r="B54" t="n">
-        <v>15952.93048347446</v>
+        <v>12958</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.001066666767802458</v>
+        <v>-7.716942551188023e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>42964.51736111111</v>
+        <v>42830.52083333334</v>
       </c>
       <c r="B55" t="n">
-        <v>15975.96503687517</v>
+        <v>12995</v>
       </c>
       <c r="C55" t="n">
-        <v>0.001442865906981246</v>
+        <v>0.002851310065688177</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>42964.52083333334</v>
+        <v>42830.52430555555</v>
       </c>
       <c r="B56" t="n">
-        <v>15980.97254848402</v>
+        <v>13004</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0003133912088076259</v>
+        <v>0.0006923343482052807</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>42964.52430555555</v>
+        <v>42830.52777777778</v>
       </c>
       <c r="B57" t="n">
-        <v>15929.89593007375</v>
+        <v>13005</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.003201207893346869</v>
+        <v>7.689645895595162e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>42964.52777777778</v>
+        <v>42830.53125</v>
       </c>
       <c r="B58" t="n">
-        <v>15949.92597650915</v>
+        <v>13000</v>
       </c>
       <c r="C58" t="n">
-        <v>0.001256597300309695</v>
+        <v>-0.000384541439078148</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>42964.53125</v>
+        <v>42830.53472222222</v>
       </c>
       <c r="B59" t="n">
-        <v>15915.87489756897</v>
+        <v>12995</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.002137155882900425</v>
+        <v>-0.0003846893680831972</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>42964.53472222222</v>
+        <v>42830.53819444445</v>
       </c>
       <c r="B60" t="n">
-        <v>15878.81931166348</v>
+        <v>12980</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.002330929962041942</v>
+        <v>-0.001154956817509681</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>42964.53819444445</v>
+        <v>42830.54166666666</v>
       </c>
       <c r="B61" t="n">
-        <v>15854.783255941</v>
+        <v>12983</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.001514864898670238</v>
+        <v>0.0002310981021725161</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42964.54166666666</v>
+        <v>42830.54513888889</v>
       </c>
       <c r="B62" t="n">
-        <v>15890.83733952472</v>
+        <v>12957</v>
       </c>
       <c r="C62" t="n">
-        <v>0.002271437660312138</v>
+        <v>-0.002004626731442618</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42964.54513888889</v>
+        <v>42830.54861111111</v>
       </c>
       <c r="B63" t="n">
-        <v>15888.83433488118</v>
+        <v>12941</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.0001260557167937154</v>
+        <v>-0.001235616807140757</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42964.54861111111</v>
+        <v>42830.55208333334</v>
       </c>
       <c r="B64" t="n">
-        <v>15914.8733952472</v>
+        <v>12958</v>
       </c>
       <c r="C64" t="n">
-        <v>0.00163748619534018</v>
+        <v>0.001312792188232413</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42964.55208333334</v>
+        <v>42830.55555555555</v>
       </c>
       <c r="B65" t="n">
-        <v>15956.93649276154</v>
+        <v>12934</v>
       </c>
       <c r="C65" t="n">
-        <v>0.002639518877872654</v>
+        <v>-0.001853855003364492</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42964.55555555555</v>
+        <v>42830.55902777778</v>
       </c>
       <c r="B66" t="n">
-        <v>15959.94099972685</v>
+        <v>12915</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0001882707338705021</v>
+        <v>-0.001470076476597241</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42964.55902777778</v>
+        <v>42830.5625</v>
       </c>
       <c r="B67" t="n">
-        <v>15922.88541382136</v>
+        <v>12899</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.002324486675670214</v>
+        <v>-0.001239637564804799</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42964.5625</v>
+        <v>42830.56597222222</v>
       </c>
       <c r="B68" t="n">
-        <v>15917.87790221251</v>
+        <v>12899</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.0003145346485844102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42964.56597222222</v>
+        <v>42830.56944444445</v>
       </c>
       <c r="B69" t="n">
-        <v>15855.78475826277</v>
+        <v>12896</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.003908471217723145</v>
+        <v>-0.000232603218726541</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42964.56944444445</v>
+        <v>42830.57291666666</v>
       </c>
       <c r="B70" t="n">
-        <v>15889.83583720295</v>
+        <v>12895</v>
       </c>
       <c r="C70" t="n">
-        <v>0.002145246579546514</v>
+        <v>-7.754643096440874e-05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42964.57291666666</v>
+        <v>42830.57638888889</v>
       </c>
       <c r="B71" t="n">
-        <v>15879.82081398525</v>
+        <v>12908</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.0006304772921790722</v>
+        <v>0.001007634856407185</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42964.57638888889</v>
+        <v>42830.57986111111</v>
       </c>
       <c r="B72" t="n">
-        <v>15908.86438131658</v>
+        <v>12896</v>
       </c>
       <c r="C72" t="n">
-        <v>0.001827290133847381</v>
+        <v>-0.0009300884254429126</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42964.57986111111</v>
+        <v>42830.58333333334</v>
       </c>
       <c r="B73" t="n">
-        <v>15886.83133023764</v>
+        <v>12891</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.001385914295161195</v>
+        <v>-0.0003877923033047782</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42964.58333333334</v>
+        <v>42830.58680555555</v>
       </c>
       <c r="B74" t="n">
-        <v>15860.79226987162</v>
+        <v>12908</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.001640378916729435</v>
+        <v>0.001317880728747664</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42964.58680555555</v>
+        <v>42830.59027777778</v>
       </c>
       <c r="B75" t="n">
-        <v>15869.80579076755</v>
+        <v>12926</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0005681280334611449</v>
+        <v>0.001393512650988267</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42964.59027777778</v>
+        <v>42830.59375</v>
       </c>
       <c r="B76" t="n">
-        <v>15874.8133023764</v>
+        <v>12959</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0003154872727055174</v>
+        <v>0.002549740612573654</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42964.59375</v>
+        <v>42830.59722222222</v>
       </c>
       <c r="B77" t="n">
-        <v>15890.83733952472</v>
+        <v>12971</v>
       </c>
       <c r="C77" t="n">
-        <v>0.001008890936197135</v>
+        <v>0.0009255689052585285</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42964.59722222222</v>
+        <v>42830.60069444445</v>
       </c>
       <c r="B78" t="n">
-        <v>15882.82532095056</v>
+        <v>12989</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.000504318235488709</v>
+        <v>0.00138674906661089</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42964.60069444445</v>
+        <v>42830.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>15868.80428844578</v>
+        <v>12976</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.0008831693735797814</v>
+        <v>-0.001001348052089778</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42964.60416666666</v>
+        <v>42830.60763888889</v>
       </c>
       <c r="B80" t="n">
-        <v>15852.78025129746</v>
+        <v>13011</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.001010292439282723</v>
+        <v>0.002693656148281718</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42964.60763888889</v>
+        <v>42830.61111111111</v>
       </c>
       <c r="B81" t="n">
-        <v>15803.70663753073</v>
+        <v>13005</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.003100385285873199</v>
+        <v>-0.0004612546207240102</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42964.61111111111</v>
+        <v>42830.61458333334</v>
       </c>
       <c r="B82" t="n">
-        <v>15760.64203769462</v>
+        <v>13003</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.002728687799000692</v>
+        <v>-0.0001537988314320993</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42964.61458333334</v>
+        <v>42830.61805555555</v>
       </c>
       <c r="B83" t="n">
-        <v>15790.68710734772</v>
+        <v>13018</v>
       </c>
       <c r="C83" t="n">
-        <v>0.001904520636617267</v>
+        <v>0.001152915081012654</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42964.61805555555</v>
+        <v>42830.62152777778</v>
       </c>
       <c r="B84" t="n">
-        <v>15784.6780934171</v>
+        <v>12995</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.0003806140619408054</v>
+        <v>-0.001768347056742003</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42964.62152777778</v>
+        <v>42830.625</v>
       </c>
       <c r="B85" t="n">
-        <v>15825.73968860967</v>
+        <v>12989</v>
       </c>
       <c r="C85" t="n">
-        <v>0.002597980107137571</v>
+        <v>-0.0004618226683066269</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42964.625</v>
+        <v>42830.62847222222</v>
       </c>
       <c r="B86" t="n">
-        <v>15837.75771647091</v>
+        <v>12992</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0007591093481938937</v>
+        <v>0.0002309379941751343</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42964.62847222222</v>
+        <v>42830.63194444445</v>
       </c>
       <c r="B87" t="n">
-        <v>15825.73968860967</v>
+        <v>12953</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.0007591093481937658</v>
+        <v>-0.00300636187120316</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42964.63194444445</v>
+        <v>42830.63541666666</v>
       </c>
       <c r="B88" t="n">
-        <v>15814.7231630702</v>
+        <v>12918</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.0006963568160354786</v>
+        <v>-0.002705733937837939</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42964.63541666666</v>
+        <v>42830.63888888889</v>
       </c>
       <c r="B89" t="n">
-        <v>15845.76973504507</v>
+        <v>12926</v>
       </c>
       <c r="C89" t="n">
-        <v>0.001961219114698513</v>
+        <v>0.0006190992304226895</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42964.63888888889</v>
+        <v>42830.64236111111</v>
       </c>
       <c r="B90" t="n">
-        <v>15837.75771647091</v>
+        <v>12950</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.0005057529504692906</v>
+        <v>0.001855001304843037</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42964.64236111111</v>
+        <v>42830.64583333334</v>
       </c>
       <c r="B91" t="n">
-        <v>15859.79076754985</v>
+        <v>12955</v>
       </c>
       <c r="C91" t="n">
-        <v>0.001390205595148746</v>
+        <v>0.000386025868526471</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42964.64583333334</v>
+        <v>42830.64930555555</v>
       </c>
       <c r="B92" t="n">
-        <v>15871.80879541109</v>
+        <v>12963</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0007574801523658585</v>
+        <v>0.0006173316038325207</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42964.64930555555</v>
+        <v>42830.65277777778</v>
       </c>
       <c r="B93" t="n">
-        <v>15919.88090685605</v>
+        <v>12984</v>
       </c>
       <c r="C93" t="n">
-        <v>0.003024195853265782</v>
+        <v>0.001618684594384237</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42964.65277777778</v>
+        <v>42830.65625</v>
       </c>
       <c r="B94" t="n">
-        <v>15925.88992078667</v>
+        <v>12997</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0003773822297759883</v>
+        <v>0.00100073138716128</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>42964.65625</v>
+        <v>42830.65972222222</v>
       </c>
       <c r="B95" t="n">
-        <v>15919.88090685605</v>
+        <v>12983</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.0003773822297761153</v>
+        <v>-0.001077752221335001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>42964.65972222222</v>
+        <v>42830.66319444445</v>
       </c>
       <c r="B96" t="n">
-        <v>15917.87790221251</v>
+        <v>12952</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.0001258257315279178</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>42964.66319444445</v>
-      </c>
-      <c r="B97" t="n">
-        <v>15905.85987435127</v>
-      </c>
-      <c r="C97" t="n">
-        <v>-0.0007552870449684868</v>
+        <v>-0.002390593002782339</v>
       </c>
     </row>
   </sheetData>
